--- a/Excel2Lua/bin/Debug/excel/累计在线.xlsx
+++ b/Excel2Lua/bin/Debug/excel/累计在线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -785,7 +788,7 @@
       <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="16">
         <v>-1</v>
       </c>
       <c r="H2" s="6">
@@ -794,7 +797,7 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="16">
         <v>-1</v>
       </c>
       <c r="L2" s="7">
@@ -817,7 +820,7 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="16">
         <v>-1</v>
       </c>
       <c r="H3" s="6">
@@ -826,7 +829,7 @@
       <c r="J3" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="16">
         <v>-1</v>
       </c>
       <c r="L3" s="15">
@@ -849,7 +852,7 @@
       <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="16">
         <v>-1</v>
       </c>
       <c r="H4" s="6">
@@ -858,7 +861,7 @@
       <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="16">
         <v>-1</v>
       </c>
       <c r="L4" s="15"/>
@@ -879,7 +882,7 @@
       <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="16">
         <v>-1</v>
       </c>
       <c r="H5" s="6">
@@ -888,7 +891,7 @@
       <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="16">
         <v>-1</v>
       </c>
       <c r="L5" s="15"/>
@@ -909,7 +912,7 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="16">
         <f>24*3600</f>
         <v>86400</v>
       </c>
@@ -919,7 +922,7 @@
       <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="16">
         <f>24*3600</f>
         <v>86400</v>
       </c>
@@ -943,7 +946,7 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="16">
         <v>-1</v>
       </c>
       <c r="H7" s="6">
@@ -952,7 +955,7 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="16">
         <v>-1</v>
       </c>
       <c r="L7" s="7">
@@ -975,7 +978,7 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="16">
         <v>-1</v>
       </c>
       <c r="H8" s="6">
@@ -984,7 +987,7 @@
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="16">
         <v>-1</v>
       </c>
       <c r="L8" s="7">
@@ -1007,7 +1010,7 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="16">
         <v>-1</v>
       </c>
       <c r="H9" s="6">
@@ -1016,7 +1019,7 @@
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="16">
         <v>-1</v>
       </c>
       <c r="L9" s="7">

--- a/Excel2Lua/bin/Debug/excel/累计在线.xlsx
+++ b/Excel2Lua/bin/Debug/excel/累计在线.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="通用" sheetId="1" r:id="rId1"/>
     <sheet name="累计在线" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -340,11 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +721,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -788,7 +788,7 @@
       <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>-1</v>
       </c>
       <c r="H2" s="6">
@@ -797,7 +797,7 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>-1</v>
       </c>
       <c r="L2" s="7">
@@ -820,7 +820,7 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>-1</v>
       </c>
       <c r="H3" s="6">
@@ -829,10 +829,10 @@
       <c r="J3" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="K3" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="16">
         <v>388</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>-1</v>
       </c>
       <c r="H4" s="6">
@@ -861,10 +861,10 @@
       <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="K4" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="K4" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1">
       <c r="A5" s="9" t="s">
@@ -882,7 +882,7 @@
       <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>-1</v>
       </c>
       <c r="H5" s="6">
@@ -891,10 +891,10 @@
       <c r="J5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="15"/>
+      <c r="K5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1">
       <c r="A6" s="9" t="s">
@@ -912,9 +912,8 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
-        <f>24*3600</f>
-        <v>86400</v>
+      <c r="G6" s="15">
+        <v>1</v>
       </c>
       <c r="H6" s="6">
         <v>31189</v>
@@ -922,9 +921,8 @@
       <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="16">
-        <f>24*3600</f>
-        <v>86400</v>
+      <c r="K6" s="15">
+        <v>1</v>
       </c>
       <c r="L6" s="7">
         <v>688</v>
@@ -946,7 +944,7 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>-1</v>
       </c>
       <c r="H7" s="6">
@@ -955,7 +953,7 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>-1</v>
       </c>
       <c r="L7" s="7">
@@ -978,7 +976,7 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>-1</v>
       </c>
       <c r="H8" s="6">
@@ -987,7 +985,7 @@
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>-1</v>
       </c>
       <c r="L8" s="7">
@@ -1010,7 +1008,7 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>-1</v>
       </c>
       <c r="H9" s="6">
@@ -1019,7 +1017,7 @@
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>-1</v>
       </c>
       <c r="L9" s="7">
